--- a/outputs-HGR-r202-archive/o__Burkholderiales.xlsx
+++ b/outputs-HGR-r202-archive/o__Burkholderiales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G155"/>
+  <dimension ref="A1:G119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -764,20 +764,20 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12991.fa</t>
+          <t>even_MAG-GUT13480.fa</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9998738646657218</v>
+        <v>0.9989971912319007</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0001208440312990766</v>
+        <v>0.0004663907049675599</v>
       </c>
       <c r="D12" t="n">
-        <v>5.291302978998986e-06</v>
+        <v>0.0005364180631317275</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9998738646657218</v>
+        <v>0.9989971912319007</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -793,20 +793,20 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13170.fa</t>
+          <t>even_MAG-GUT13816.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9996948109761469</v>
+        <v>0.9996344976526832</v>
       </c>
       <c r="C13" t="n">
-        <v>0.000286511839656329</v>
+        <v>0.0002520861963322941</v>
       </c>
       <c r="D13" t="n">
-        <v>1.867718419683867e-05</v>
+        <v>0.0001134161509845525</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9996948109761469</v>
+        <v>0.9996344976526832</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -822,20 +822,20 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13480.fa</t>
+          <t>even_MAG-GUT13881.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9989971912319007</v>
+        <v>0.9997907926151772</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0004663907049675599</v>
+        <v>0.0001983002757962888</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0005364180631317275</v>
+        <v>1.090710902644705e-05</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9989971912319007</v>
+        <v>0.9997907926151772</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -851,20 +851,20 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13637.fa</t>
+          <t>even_MAG-GUT13955.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.99986989575664</v>
+        <v>0.9996809214459964</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0001138257807805667</v>
+        <v>0.0001034115485400753</v>
       </c>
       <c r="D15" t="n">
-        <v>1.627846257962882e-05</v>
+        <v>0.0002156670054635568</v>
       </c>
       <c r="E15" t="n">
-        <v>0.99986989575664</v>
+        <v>0.9996809214459964</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -880,20 +880,20 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13816.fa</t>
+          <t>even_MAG-GUT14050.fa</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9996344976526832</v>
+        <v>0.9998307806937792</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0002520861963322941</v>
+        <v>0.0001262553759332872</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0001134161509845525</v>
+        <v>4.29639302875961e-05</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9996344976526832</v>
+        <v>0.9998307806937792</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -909,20 +909,20 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13881.fa</t>
+          <t>even_MAG-GUT14172.fa</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9997907926151772</v>
+        <v>0.9995113457104943</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0001983002757962888</v>
+        <v>0.000220401394943906</v>
       </c>
       <c r="D17" t="n">
-        <v>1.090710902644705e-05</v>
+        <v>0.0002682528945618267</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9997907926151772</v>
+        <v>0.9995113457104943</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -938,20 +938,20 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13955.fa</t>
+          <t>even_MAG-GUT14572.fa</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9996809214459964</v>
+        <v>0.9994181967729242</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0001034115485400753</v>
+        <v>0.0002201015887256049</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0002156670054635568</v>
+        <v>0.0003617016383502064</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9996809214459964</v>
+        <v>0.9994181967729242</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -967,20 +967,20 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT14050.fa</t>
+          <t>even_MAG-GUT14827.fa</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9998307806937792</v>
+        <v>0.9995395747667459</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0001262553759332872</v>
+        <v>0.0001604854227020701</v>
       </c>
       <c r="D19" t="n">
-        <v>4.29639302875961e-05</v>
+        <v>0.0002999398105519812</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9998307806937792</v>
+        <v>0.9995395747667459</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -996,20 +996,20 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT14125.fa</t>
+          <t>even_MAG-GUT15246.fa</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.99986989575664</v>
+        <v>0.9998274203769807</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0001138257807805667</v>
+        <v>0.0001428601504130165</v>
       </c>
       <c r="D20" t="n">
-        <v>1.627846257962882e-05</v>
+        <v>2.971947260609833e-05</v>
       </c>
       <c r="E20" t="n">
-        <v>0.99986989575664</v>
+        <v>0.9998274203769807</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1025,20 +1025,20 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT14172.fa</t>
+          <t>even_MAG-GUT16149.fa</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9995113457104943</v>
+        <v>0.9997038566502547</v>
       </c>
       <c r="C21" t="n">
-        <v>0.000220401394943906</v>
+        <v>0.0001544487519456991</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0002682528945618267</v>
+        <v>0.0001416945977996558</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9995113457104943</v>
+        <v>0.9997038566502547</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1054,20 +1054,20 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT14250.fa</t>
+          <t>even_MAG-GUT16625.fa</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9998278918297485</v>
+        <v>0.9995361259232339</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0001672766295372257</v>
+        <v>0.0003887153641853903</v>
       </c>
       <c r="D22" t="n">
-        <v>4.831540714133863e-06</v>
+        <v>7.515871258049616e-05</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9998278918297485</v>
+        <v>0.9995361259232339</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1083,20 +1083,20 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT14532.fa</t>
+          <t>even_MAG-GUT16715.fa</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9998722029085313</v>
+        <v>0.999410182910021</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0001162502696582038</v>
+        <v>0.0003019806211986389</v>
       </c>
       <c r="D23" t="n">
-        <v>1.15468218103389e-05</v>
+        <v>0.0002878364687803583</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9998722029085313</v>
+        <v>0.999410182910021</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1112,20 +1112,20 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT14572.fa</t>
+          <t>even_MAG-GUT16984.fa</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9994181967729242</v>
+        <v>0.998575603449574</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0002201015887256049</v>
+        <v>0.0003044664199870335</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0003617016383502064</v>
+        <v>0.001119930130438968</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9994181967729242</v>
+        <v>0.998575603449574</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1141,20 +1141,20 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT14827.fa</t>
+          <t>even_MAG-GUT17598.fa</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9995395747667459</v>
+        <v>0.9985600116214202</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0001604854227020701</v>
+        <v>0.0004711748173774318</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0002999398105519812</v>
+        <v>0.0009688135612023478</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9995395747667459</v>
+        <v>0.9985600116214202</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1170,20 +1170,20 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT15246.fa</t>
+          <t>even_MAG-GUT1763.fa</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9998274203769807</v>
+        <v>0.999868353946588</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0001428601504130165</v>
+        <v>0.0001174572421850335</v>
       </c>
       <c r="D26" t="n">
-        <v>2.971947260609833e-05</v>
+        <v>1.418881122686212e-05</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9998274203769807</v>
+        <v>0.999868353946588</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1199,20 +1199,20 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT16149.fa</t>
+          <t>even_MAG-GUT18024.fa</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.9997038566502547</v>
+        <v>0.9997109055220665</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0001544487519456991</v>
+        <v>0.00010176831545236</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0001416945977996558</v>
+        <v>0.0001873261624810994</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9997038566502547</v>
+        <v>0.9997109055220665</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1228,20 +1228,20 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT16156.fa</t>
+          <t>even_MAG-GUT18361.fa</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.9998339218791726</v>
+        <v>0.999864543722787</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0001477627063901346</v>
+        <v>0.0001274520779808093</v>
       </c>
       <c r="D28" t="n">
-        <v>1.831541443716697e-05</v>
+        <v>8.004199232089952e-06</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9998339218791726</v>
+        <v>0.999864543722787</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1257,20 +1257,20 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT16625.fa</t>
+          <t>even_MAG-GUT18974.fa</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.9995361259232339</v>
+        <v>0.9998498118071265</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0003887153641853903</v>
+        <v>0.0001258729522909121</v>
       </c>
       <c r="D29" t="n">
-        <v>7.515871258049616e-05</v>
+        <v>2.431524058249121e-05</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9995361259232339</v>
+        <v>0.9998498118071265</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1286,20 +1286,20 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT16715.fa</t>
+          <t>even_MAG-GUT19408.fa</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.999410182910021</v>
+        <v>0.9998415004716017</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0003019806211986389</v>
+        <v>0.0001035329954440776</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0002878364687803583</v>
+        <v>5.496653295424689e-05</v>
       </c>
       <c r="E30" t="n">
-        <v>0.999410182910021</v>
+        <v>0.9998415004716017</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1315,20 +1315,20 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT16984.fa</t>
+          <t>even_MAG-GUT19561.fa</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.998575603449574</v>
+        <v>0.9996429184408056</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0003044664199870335</v>
+        <v>0.0001323585502003369</v>
       </c>
       <c r="D31" t="n">
-        <v>0.001119930130438968</v>
+        <v>0.0002247230089941572</v>
       </c>
       <c r="E31" t="n">
-        <v>0.998575603449574</v>
+        <v>0.9996429184408056</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1344,20 +1344,20 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT17271.fa</t>
+          <t>even_MAG-GUT19599.fa</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.9998045722057908</v>
+        <v>0.999712920260579</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0001576960977385012</v>
+        <v>0.0001000504541476946</v>
       </c>
       <c r="D32" t="n">
-        <v>3.773169647069771e-05</v>
+        <v>0.0001870292852732736</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9998045722057908</v>
+        <v>0.999712920260579</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1373,20 +1373,20 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT17598.fa</t>
+          <t>even_MAG-GUT19853.fa</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.9985600116214202</v>
+        <v>0.9994335495681312</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0004711748173774318</v>
+        <v>0.0002469888848538794</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0009688135612023478</v>
+        <v>0.0003194615470149664</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9985600116214202</v>
+        <v>0.9994335495681312</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1402,20 +1402,20 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1763.fa</t>
+          <t>even_MAG-GUT2110.fa</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.999868353946588</v>
+        <v>0.9996471580310794</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0001174572421850335</v>
+        <v>0.0001306658809649643</v>
       </c>
       <c r="D34" t="n">
-        <v>1.418881122686212e-05</v>
+        <v>0.0002221760879557578</v>
       </c>
       <c r="E34" t="n">
-        <v>0.999868353946588</v>
+        <v>0.9996471580310794</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1431,20 +1431,20 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT18024.fa</t>
+          <t>even_MAG-GUT21424.fa</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.9997109055220665</v>
+        <v>0.9995301555512336</v>
       </c>
       <c r="C35" t="n">
-        <v>0.00010176831545236</v>
+        <v>9.707281377229741e-05</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0001873261624810994</v>
+        <v>0.0003727716349941096</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9997109055220665</v>
+        <v>0.9995301555512336</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1460,20 +1460,20 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT18195.fa</t>
+          <t>even_MAG-GUT22670.fa</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.9996406472738552</v>
+        <v>0.9985852856375979</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0003574354439225508</v>
+        <v>0.0002207601564716553</v>
       </c>
       <c r="D36" t="n">
-        <v>1.91728222236412e-06</v>
+        <v>0.001193954205930492</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9996406472738552</v>
+        <v>0.9985852856375979</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1489,20 +1489,20 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT18210.fa</t>
+          <t>even_MAG-GUT24564.fa</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.999659650872724</v>
+        <v>0.9993536935639674</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0003399766029623027</v>
+        <v>0.0002242060509386056</v>
       </c>
       <c r="D37" t="n">
-        <v>3.725243136651739e-07</v>
+        <v>0.0004221003850940061</v>
       </c>
       <c r="E37" t="n">
-        <v>0.999659650872724</v>
+        <v>0.9993536935639674</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1518,20 +1518,20 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT18312.fa</t>
+          <t>even_MAG-GUT24606.fa</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.9998399224254705</v>
+        <v>0.9996377087565294</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0001427790436418748</v>
+        <v>0.0001511674050878786</v>
       </c>
       <c r="D38" t="n">
-        <v>1.729853088765751e-05</v>
+        <v>0.0002111238383827358</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9998399224254705</v>
+        <v>0.9996377087565294</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1547,20 +1547,20 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT18361.fa</t>
+          <t>even_MAG-GUT24616.fa</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.999864543722787</v>
+        <v>0.9997119703668496</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0001274520779808093</v>
+        <v>0.0001802443067284984</v>
       </c>
       <c r="D39" t="n">
-        <v>8.004199232089952e-06</v>
+        <v>0.0001077853264220548</v>
       </c>
       <c r="E39" t="n">
-        <v>0.999864543722787</v>
+        <v>0.9997119703668496</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1576,20 +1576,20 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT18974.fa</t>
+          <t>even_MAG-GUT24657.fa</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.9998498118071265</v>
+        <v>0.9994249530243033</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0001258729522909121</v>
+        <v>0.0002508169343767682</v>
       </c>
       <c r="D40" t="n">
-        <v>2.431524058249121e-05</v>
+        <v>0.0003242300413198373</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9998498118071265</v>
+        <v>0.9994249530243033</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1605,20 +1605,20 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT19408.fa</t>
+          <t>even_MAG-GUT24787.fa</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.9998415004716017</v>
+        <v>0.9988868383437871</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0001035329954440776</v>
+        <v>0.0003623913985138046</v>
       </c>
       <c r="D41" t="n">
-        <v>5.496653295424689e-05</v>
+        <v>0.0007507702576990379</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9998415004716017</v>
+        <v>0.9988868383437871</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1634,20 +1634,20 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT19561.fa</t>
+          <t>even_MAG-GUT24840.fa</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.9996429184408056</v>
+        <v>0.9995212329903007</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0001323585502003369</v>
+        <v>0.0002687347033317212</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0002247230089941572</v>
+        <v>0.0002100323063675287</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9996429184408056</v>
+        <v>0.9995212329903007</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1663,20 +1663,20 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT19592.fa</t>
+          <t>even_MAG-GUT24988.fa</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.9997918702166282</v>
+        <v>0.9997342114343351</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0001855842367744111</v>
+        <v>0.0001761274035959859</v>
       </c>
       <c r="D43" t="n">
-        <v>2.254554659737383e-05</v>
+        <v>8.96611620689476e-05</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9997918702166282</v>
+        <v>0.9997342114343351</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1692,20 +1692,20 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT19599.fa</t>
+          <t>even_MAG-GUT25022.fa</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.999712920260579</v>
+        <v>0.9998492960035245</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0001000504541476946</v>
+        <v>6.904488381648624e-05</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0001870292852732736</v>
+        <v>8.16591126592252e-05</v>
       </c>
       <c r="E44" t="n">
-        <v>0.999712920260579</v>
+        <v>0.9998492960035245</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1721,20 +1721,20 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT19853.fa</t>
+          <t>even_MAG-GUT25055.fa</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.9994335495681312</v>
+        <v>0.9996652869877771</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0002469888848538794</v>
+        <v>0.0001774382355919015</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0003194615470149664</v>
+        <v>0.0001572747766310852</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9994335495681312</v>
+        <v>0.9996652869877771</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1750,20 +1750,20 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2110.fa</t>
+          <t>even_MAG-GUT25223.fa</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.9996471580310794</v>
+        <v>0.9998295930755073</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0001306658809649643</v>
+        <v>0.0001329797945852853</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0002221760879557578</v>
+        <v>3.742712990742138e-05</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9996471580310794</v>
+        <v>0.9998295930755073</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1779,20 +1779,20 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT21424.fa</t>
+          <t>even_MAG-GUT25263.fa</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.9995301555512336</v>
+        <v>0.999826012594508</v>
       </c>
       <c r="C47" t="n">
-        <v>9.707281377229741e-05</v>
+        <v>0.0001637834528976444</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0003727716349941096</v>
+        <v>1.020395259430253e-05</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9995301555512336</v>
+        <v>0.999826012594508</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1808,20 +1808,20 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT22049.fa</t>
+          <t>even_MAG-GUT25307.fa</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.9989563944976111</v>
+        <v>0.9993686702270496</v>
       </c>
       <c r="C48" t="n">
-        <v>0.000601934774749489</v>
+        <v>0.0002426427340780705</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0004416707276394951</v>
+        <v>0.0003886870388722032</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9989563944976111</v>
+        <v>0.9993686702270496</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1837,20 +1837,20 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT22670.fa</t>
+          <t>even_MAG-GUT27032.fa</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.9985852856375979</v>
+        <v>0.9995622840480395</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0002207601564716553</v>
+        <v>0.0001590115674757624</v>
       </c>
       <c r="D49" t="n">
-        <v>0.001193954205930492</v>
+        <v>0.000278704384484657</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9985852856375979</v>
+        <v>0.9995622840480395</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1866,20 +1866,20 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24564.fa</t>
+          <t>even_MAG-GUT27097.fa</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.9993536935639674</v>
+        <v>0.9991813928317834</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0002242060509386056</v>
+        <v>0.0001764725597648321</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0004221003850940061</v>
+        <v>0.000642134608451608</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9993536935639674</v>
+        <v>0.9991813928317834</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1895,20 +1895,20 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24606.fa</t>
+          <t>even_MAG-GUT29557.fa</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.9996377087565294</v>
+        <v>0.9998163207883284</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0001511674050878786</v>
+        <v>0.0001033970895745696</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0002111238383827358</v>
+        <v>8.028212209709819e-05</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9996377087565294</v>
+        <v>0.9998163207883284</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -1924,20 +1924,20 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24616.fa</t>
+          <t>even_MAG-GUT29963.fa</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.9997119703668496</v>
+        <v>0.9992166900515899</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0001802443067284984</v>
+        <v>0.000320816354988552</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0001077853264220548</v>
+        <v>0.0004624935934216998</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9997119703668496</v>
+        <v>0.9992166900515899</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -1953,20 +1953,20 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24657.fa</t>
+          <t>even_MAG-GUT30085.fa</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.9994249530243033</v>
+        <v>0.9996756373997712</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0002508169343767682</v>
+        <v>0.0002099207956498268</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0003242300413198373</v>
+        <v>0.0001144418045789542</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9994249530243033</v>
+        <v>0.9996756373997712</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -1982,20 +1982,20 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24787.fa</t>
+          <t>even_MAG-GUT31546.fa</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.9988868383437871</v>
+        <v>0.9997545759264096</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0003623913985138046</v>
+        <v>0.0002410362308917952</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0007507702576990379</v>
+        <v>4.387842698675573e-06</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9988868383437871</v>
+        <v>0.9997545759264096</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2011,20 +2011,20 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24840.fa</t>
+          <t>even_MAG-GUT31872.fa</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.9995212329903007</v>
+        <v>0.9998306965191361</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0002687347033317212</v>
+        <v>0.0001333840845426313</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0002100323063675287</v>
+        <v>3.591939632123801e-05</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9995212329903007</v>
+        <v>0.9998306965191361</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -2040,20 +2040,20 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24988.fa</t>
+          <t>even_MAG-GUT32354.fa</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.9997342114343351</v>
+        <v>0.9989712290666233</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0001761274035959859</v>
+        <v>0.0004682535062220691</v>
       </c>
       <c r="D56" t="n">
-        <v>8.96611620689476e-05</v>
+        <v>0.0005605174271547122</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9997342114343351</v>
+        <v>0.9989712290666233</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -2069,20 +2069,20 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25022.fa</t>
+          <t>even_MAG-GUT32469.fa</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.9998492960035245</v>
+        <v>0.9998655583491839</v>
       </c>
       <c r="C57" t="n">
-        <v>6.904488381648624e-05</v>
+        <v>0.0001167745346574255</v>
       </c>
       <c r="D57" t="n">
-        <v>8.16591126592252e-05</v>
+        <v>1.766711615877587e-05</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9998492960035245</v>
+        <v>0.9998655583491839</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2098,20 +2098,20 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25055.fa</t>
+          <t>even_MAG-GUT33566.fa</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.9996652869877771</v>
+        <v>0.9993466427487687</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0001774382355919015</v>
+        <v>0.0001790685336789261</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0001572747766310852</v>
+        <v>0.0004742887175522907</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9996652869877771</v>
+        <v>0.9993466427487687</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -2127,20 +2127,20 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25075.fa</t>
+          <t>even_MAG-GUT3478.fa</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.9995635587505387</v>
+        <v>0.9793423520723687</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0004355134090633844</v>
+        <v>0.02051329176876794</v>
       </c>
       <c r="D59" t="n">
-        <v>9.278403978194481e-07</v>
+        <v>0.0001443561588631606</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9995635587505387</v>
+        <v>0.9793423520723687</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -2156,20 +2156,20 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25223.fa</t>
+          <t>even_MAG-GUT35394.fa</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.9998295930755073</v>
+        <v>0.999604758838644</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0001329797945852853</v>
+        <v>0.000108711329773256</v>
       </c>
       <c r="D60" t="n">
-        <v>3.742712990742138e-05</v>
+        <v>0.0002865298315826859</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9998295930755073</v>
+        <v>0.999604758838644</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -2185,20 +2185,20 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25263.fa</t>
+          <t>even_MAG-GUT35641.fa</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.999826012594508</v>
+        <v>0.9994904166307113</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0001637834528976444</v>
+        <v>0.0002887371232230723</v>
       </c>
       <c r="D61" t="n">
-        <v>1.020395259430253e-05</v>
+        <v>0.0002208462460658347</v>
       </c>
       <c r="E61" t="n">
-        <v>0.999826012594508</v>
+        <v>0.9994904166307113</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2214,20 +2214,20 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25307.fa</t>
+          <t>even_MAG-GUT36218.fa</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.9993686702270496</v>
+        <v>0.9995845771446575</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0002426427340780705</v>
+        <v>0.0001727903443024195</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0003886870388722032</v>
+        <v>0.0002426325110399979</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9993686702270496</v>
+        <v>0.9995845771446575</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2243,20 +2243,20 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT27032.fa</t>
+          <t>even_MAG-GUT36683.fa</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.9995622840480395</v>
+        <v>0.999388947167424</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0001590115674757624</v>
+        <v>0.0002823213475385093</v>
       </c>
       <c r="D63" t="n">
-        <v>0.000278704384484657</v>
+        <v>0.0003287314850373544</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9995622840480395</v>
+        <v>0.999388947167424</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2272,20 +2272,20 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT27097.fa</t>
+          <t>even_MAG-GUT37389.fa</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.9991813928317834</v>
+        <v>0.9995396881944948</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0001764725597648321</v>
+        <v>0.0001073719498096469</v>
       </c>
       <c r="D64" t="n">
-        <v>0.000642134608451608</v>
+        <v>0.0003529398556954158</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9991813928317834</v>
+        <v>0.9995396881944948</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -2301,20 +2301,20 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29557.fa</t>
+          <t>even_MAG-GUT37939.fa</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.9998163207883284</v>
+        <v>0.9990818046438268</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0001033970895745696</v>
+        <v>0.0003199943136326192</v>
       </c>
       <c r="D65" t="n">
-        <v>8.028212209709819e-05</v>
+        <v>0.0005982010425405805</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9998163207883284</v>
+        <v>0.9990818046438268</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -2330,20 +2330,20 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29963.fa</t>
+          <t>even_MAG-GUT38856.fa</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.9992166900515899</v>
+        <v>0.9995255883203497</v>
       </c>
       <c r="C66" t="n">
-        <v>0.000320816354988552</v>
+        <v>0.0001161861482492779</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0004624935934216998</v>
+        <v>0.0003582255314011772</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9992166900515899</v>
+        <v>0.9995255883203497</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -2359,20 +2359,20 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT30085.fa</t>
+          <t>even_MAG-GUT38999.fa</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.9996756373997712</v>
+        <v>0.9997894508030422</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0002099207956498268</v>
+        <v>0.0001872095771301688</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0001144418045789542</v>
+        <v>2.333961982781264e-05</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9996756373997712</v>
+        <v>0.9997894508030422</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -2388,20 +2388,20 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT31546.fa</t>
+          <t>even_MAG-GUT39108.fa</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.9997545759264096</v>
+        <v>0.999943469582811</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0002410362308917952</v>
+        <v>5.506974562880275e-05</v>
       </c>
       <c r="D68" t="n">
-        <v>4.387842698675573e-06</v>
+        <v>1.460671560053398e-06</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9997545759264096</v>
+        <v>0.999943469582811</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -2417,20 +2417,20 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT31872.fa</t>
+          <t>even_MAG-GUT39136.fa</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.9998306965191361</v>
+        <v>0.9997640605167529</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0001333840845426313</v>
+        <v>0.000112535472073546</v>
       </c>
       <c r="D69" t="n">
-        <v>3.591939632123801e-05</v>
+        <v>0.0001234040111734466</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9998306965191361</v>
+        <v>0.9997640605167529</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2446,20 +2446,20 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32354.fa</t>
+          <t>even_MAG-GUT39174.fa</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.9989712290666233</v>
+        <v>0.9996690244819735</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0004682535062220691</v>
+        <v>9.992239052388817e-05</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0005605174271547122</v>
+        <v>0.0002310531275026761</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9989712290666233</v>
+        <v>0.9996690244819735</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -2475,20 +2475,20 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32469.fa</t>
+          <t>even_MAG-GUT3922.fa</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.9998655583491839</v>
+        <v>0.9999571430768143</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0001167745346574255</v>
+        <v>3.427638624219315e-05</v>
       </c>
       <c r="D71" t="n">
-        <v>1.766711615877587e-05</v>
+        <v>8.580536943541554e-06</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9998655583491839</v>
+        <v>0.9999571430768143</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -2504,20 +2504,20 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33566.fa</t>
+          <t>even_MAG-GUT39460.fa</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.9993466427487687</v>
+        <v>0.9993666676742403</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0001790685336789261</v>
+        <v>0.0003025063946487627</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0004742887175522907</v>
+        <v>0.0003308259311108914</v>
       </c>
       <c r="E72" t="n">
-        <v>0.9993466427487687</v>
+        <v>0.9993666676742403</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -2533,20 +2533,20 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3478.fa</t>
+          <t>even_MAG-GUT3986.fa</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.9793423520723687</v>
+        <v>0.9992082719550723</v>
       </c>
       <c r="C73" t="n">
-        <v>0.02051329176876794</v>
+        <v>0.0002020094215930721</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0001443561588631606</v>
+        <v>0.0005897186233346695</v>
       </c>
       <c r="E73" t="n">
-        <v>0.9793423520723687</v>
+        <v>0.9992082719550723</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -2562,20 +2562,20 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35394.fa</t>
+          <t>even_MAG-GUT4260.fa</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.999604758838644</v>
+        <v>0.999536976106508</v>
       </c>
       <c r="C74" t="n">
-        <v>0.000108711329773256</v>
+        <v>0.0003109514095378015</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0002865298315826859</v>
+        <v>0.0001520724839542321</v>
       </c>
       <c r="E74" t="n">
-        <v>0.999604758838644</v>
+        <v>0.999536976106508</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -2591,20 +2591,20 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35641.fa</t>
+          <t>even_MAG-GUT43146.fa</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.9994904166307113</v>
+        <v>0.9995224335011985</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0002887371232230723</v>
+        <v>0.0001673111712570867</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0002208462460658347</v>
+        <v>0.0003102553275444102</v>
       </c>
       <c r="E75" t="n">
-        <v>0.9994904166307113</v>
+        <v>0.9995224335011985</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -2620,20 +2620,20 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36148.fa</t>
+          <t>even_MAG-GUT43227.fa</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.9998820642021694</v>
+        <v>0.9987740893044784</v>
       </c>
       <c r="C76" t="n">
-        <v>9.295155694483741e-05</v>
+        <v>0.0001906065803065749</v>
       </c>
       <c r="D76" t="n">
-        <v>2.498424088585754e-05</v>
+        <v>0.001035304115215065</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9998820642021694</v>
+        <v>0.9987740893044784</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -2649,20 +2649,20 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36218.fa</t>
+          <t>even_MAG-GUT4338.fa</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.9995845771446575</v>
+        <v>0.9997613812391469</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0001727903443024195</v>
+        <v>9.362154403567163e-05</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0002426325110399979</v>
+        <v>0.0001449972168174818</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9995845771446575</v>
+        <v>0.9997613812391469</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -2678,20 +2678,20 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36683.fa</t>
+          <t>even_MAG-GUT46199.fa</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.999388947167424</v>
+        <v>0.9997483222023699</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0002823213475385093</v>
+        <v>0.0001730903308057308</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0003287314850373544</v>
+        <v>7.85874668243752e-05</v>
       </c>
       <c r="E78" t="n">
-        <v>0.999388947167424</v>
+        <v>0.9997483222023699</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -2707,20 +2707,20 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37389.fa</t>
+          <t>even_MAG-GUT47180.fa</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.9995396881944948</v>
+        <v>0.9997378141182914</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0001073719498096469</v>
+        <v>0.0001051197201769945</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0003529398556954158</v>
+        <v>0.0001570661615315493</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9995396881944948</v>
+        <v>0.9997378141182914</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -2736,20 +2736,20 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37939.fa</t>
+          <t>even_MAG-GUT5085.fa</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.9990818046438268</v>
+        <v>0.9988671090598293</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0003199943136326192</v>
+        <v>0.001092906292561821</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0005982010425405805</v>
+        <v>3.998464760886453e-05</v>
       </c>
       <c r="E80" t="n">
-        <v>0.9990818046438268</v>
+        <v>0.9988671090598293</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -2765,20 +2765,20 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37961.fa</t>
+          <t>even_MAG-GUT56545.fa</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.9974794496859755</v>
+        <v>0.9991508362141909</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0005198206837812285</v>
+        <v>0.0002565948083172231</v>
       </c>
       <c r="D81" t="n">
-        <v>0.002000729630243221</v>
+        <v>0.0005925689774918812</v>
       </c>
       <c r="E81" t="n">
-        <v>0.9974794496859755</v>
+        <v>0.9991508362141909</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -2794,20 +2794,20 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT38016.fa</t>
+          <t>even_MAG-GUT56566.fa</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.9995018929455851</v>
+        <v>0.9990569958797283</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0004973313305072674</v>
+        <v>0.0002394089129954153</v>
       </c>
       <c r="D82" t="n">
-        <v>7.757239076160241e-07</v>
+        <v>0.0007035952072762732</v>
       </c>
       <c r="E82" t="n">
-        <v>0.9995018929455851</v>
+        <v>0.9990569958797283</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -2823,20 +2823,20 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT38856.fa</t>
+          <t>even_MAG-GUT56852.fa</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.9995255883203497</v>
+        <v>0.9992802660934537</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0001161861482492779</v>
+        <v>0.0003236984148333353</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0003582255314011772</v>
+        <v>0.0003960354917129949</v>
       </c>
       <c r="E83" t="n">
-        <v>0.9995255883203497</v>
+        <v>0.9992802660934537</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -2852,20 +2852,20 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT38999.fa</t>
+          <t>even_MAG-GUT57085.fa</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.9997894508030422</v>
+        <v>0.9991557083195959</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0001872095771301688</v>
+        <v>0.0001942546909523164</v>
       </c>
       <c r="D84" t="n">
-        <v>2.333961982781264e-05</v>
+        <v>0.0006500369894518938</v>
       </c>
       <c r="E84" t="n">
-        <v>0.9997894508030422</v>
+        <v>0.9991557083195959</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -2881,20 +2881,20 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT39108.fa</t>
+          <t>even_MAG-GUT58179.fa</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.999943469582811</v>
+        <v>0.9988266900569761</v>
       </c>
       <c r="C85" t="n">
-        <v>5.506974562880275e-05</v>
+        <v>0.0002042232088703094</v>
       </c>
       <c r="D85" t="n">
-        <v>1.460671560053398e-06</v>
+        <v>0.0009690867341536981</v>
       </c>
       <c r="E85" t="n">
-        <v>0.999943469582811</v>
+        <v>0.9988266900569761</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -2910,20 +2910,20 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT39136.fa</t>
+          <t>even_MAG-GUT58214.fa</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.9997640605167529</v>
+        <v>0.9997875627103392</v>
       </c>
       <c r="C86" t="n">
-        <v>0.000112535472073546</v>
+        <v>0.0002094996236508764</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0001234040111734466</v>
+        <v>2.937666009780876e-06</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9997640605167529</v>
+        <v>0.9997875627103392</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -2939,20 +2939,20 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT39174.fa</t>
+          <t>even_MAG-GUT60374.fa</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.9996690244819735</v>
+        <v>0.9996701264565448</v>
       </c>
       <c r="C87" t="n">
-        <v>9.992239052388817e-05</v>
+        <v>0.000103818483170703</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0002310531275026761</v>
+        <v>0.0002260550602844157</v>
       </c>
       <c r="E87" t="n">
-        <v>0.9996690244819735</v>
+        <v>0.9996701264565448</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -2968,20 +2968,20 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3922.fa</t>
+          <t>even_MAG-GUT61637.fa</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.9999571430768143</v>
+        <v>0.9980584100318962</v>
       </c>
       <c r="C88" t="n">
-        <v>3.427638624219315e-05</v>
+        <v>8.807011165087002e-05</v>
       </c>
       <c r="D88" t="n">
-        <v>8.580536943541554e-06</v>
+        <v>0.001853519856452867</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9999571430768143</v>
+        <v>0.9980584100318962</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -2997,20 +2997,20 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT39245.fa</t>
+          <t>even_MAG-GUT61794.fa</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.9996793613960945</v>
+        <v>0.9988348841199471</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0003143844523040226</v>
+        <v>0.0004689181523996342</v>
       </c>
       <c r="D89" t="n">
-        <v>6.254151601326615e-06</v>
+        <v>0.0006961977276530527</v>
       </c>
       <c r="E89" t="n">
-        <v>0.9996793613960945</v>
+        <v>0.9988348841199471</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -3026,20 +3026,20 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT39460.fa</t>
+          <t>even_MAG-GUT62134.fa</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.9993666676742403</v>
+        <v>0.9990849852902395</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0003025063946487627</v>
+        <v>0.0002723554336484587</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0003308259311108914</v>
+        <v>0.000642659276112112</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9993666676742403</v>
+        <v>0.9990849852902395</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -3055,20 +3055,20 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3986.fa</t>
+          <t>even_MAG-GUT62370.fa</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.9992082719550723</v>
+        <v>0.9998219747569355</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0002020094215930721</v>
+        <v>0.0001709998993334285</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0005897186233346695</v>
+        <v>7.025343731183581e-06</v>
       </c>
       <c r="E91" t="n">
-        <v>0.9992082719550723</v>
+        <v>0.9998219747569355</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -3084,20 +3084,20 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4260.fa</t>
+          <t>even_MAG-GUT62468.fa</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.999536976106508</v>
+        <v>0.9996804194215305</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0003109514095378015</v>
+        <v>0.0001708668648632709</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0001520724839542321</v>
+        <v>0.0001487137136062229</v>
       </c>
       <c r="E92" t="n">
-        <v>0.999536976106508</v>
+        <v>0.9996804194215305</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -3113,20 +3113,20 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43146.fa</t>
+          <t>even_MAG-GUT6615.fa</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.9995224335011985</v>
+        <v>0.9993360372183819</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0001673111712570867</v>
+        <v>0.0002430686373879877</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0003102553275444102</v>
+        <v>0.0004208941442301084</v>
       </c>
       <c r="E93" t="n">
-        <v>0.9995224335011985</v>
+        <v>0.9993360372183819</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -3142,20 +3142,20 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43227.fa</t>
+          <t>even_MAG-GUT66915.fa</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.9987740893044784</v>
+        <v>0.9997386828191783</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0001906065803065749</v>
+        <v>0.0001318111339768672</v>
       </c>
       <c r="D94" t="n">
-        <v>0.001035304115215065</v>
+        <v>0.0001295060468447838</v>
       </c>
       <c r="E94" t="n">
-        <v>0.9987740893044784</v>
+        <v>0.9997386828191783</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -3171,20 +3171,20 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4338.fa</t>
+          <t>even_MAG-GUT6727.fa</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.9997613812391469</v>
+        <v>0.9992286636118153</v>
       </c>
       <c r="C95" t="n">
-        <v>9.362154403567163e-05</v>
+        <v>0.0003061423121184201</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0001449972168174818</v>
+        <v>0.0004651940760663706</v>
       </c>
       <c r="E95" t="n">
-        <v>0.9997613812391469</v>
+        <v>0.9992286636118153</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -3200,20 +3200,20 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44433.fa</t>
+          <t>even_MAG-GUT6753.fa</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.9558711106675857</v>
+        <v>0.9997918379988476</v>
       </c>
       <c r="C96" t="n">
-        <v>0.04343444539469726</v>
+        <v>0.0001047080976210661</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0006944439377171306</v>
+        <v>0.0001034539035313848</v>
       </c>
       <c r="E96" t="n">
-        <v>0.9558711106675857</v>
+        <v>0.9997918379988476</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -3229,20 +3229,20 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46199.fa</t>
+          <t>even_MAG-GUT67531.fa</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.9997483222023699</v>
+        <v>0.9992966070080744</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0001730903308057308</v>
+        <v>0.0002685414066298057</v>
       </c>
       <c r="D97" t="n">
-        <v>7.85874668243752e-05</v>
+        <v>0.0004348515852958356</v>
       </c>
       <c r="E97" t="n">
-        <v>0.9997483222023699</v>
+        <v>0.9992966070080744</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -3258,20 +3258,20 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46496.fa</t>
+          <t>even_MAG-GUT6784.fa</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.9562972761125994</v>
+        <v>0.9976700800618677</v>
       </c>
       <c r="C98" t="n">
-        <v>0.04311417831578078</v>
+        <v>0.000224036917296757</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0005885455716198902</v>
+        <v>0.002105883020835536</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9562972761125994</v>
+        <v>0.9976700800618677</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -3287,20 +3287,20 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46649.fa</t>
+          <t>even_MAG-GUT68996.fa</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.963440625513206</v>
+        <v>0.999397703730617</v>
       </c>
       <c r="C99" t="n">
-        <v>0.03640053609593313</v>
+        <v>0.0002314629071519689</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0001588383908609671</v>
+        <v>0.0003708333622310773</v>
       </c>
       <c r="E99" t="n">
-        <v>0.963440625513206</v>
+        <v>0.999397703730617</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -3316,20 +3316,20 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47180.fa</t>
+          <t>even_MAG-GUT69662.fa</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.9997378141182914</v>
+        <v>0.9986022801643775</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0001051197201769945</v>
+        <v>0.0001716007979410481</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0001570661615315493</v>
+        <v>0.001226119037681517</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9997378141182914</v>
+        <v>0.9986022801643775</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -3345,20 +3345,20 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48926.fa</t>
+          <t>even_MAG-GUT7016.fa</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.9706664057737642</v>
+        <v>0.9997683677337106</v>
       </c>
       <c r="C101" t="n">
-        <v>0.02864933692186576</v>
+        <v>0.0002001058073872417</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0006842573043700152</v>
+        <v>3.152645890217879e-05</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9706664057737642</v>
+        <v>0.9997683677337106</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -3374,20 +3374,20 @@
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49076.fa</t>
+          <t>even_MAG-GUT7042.fa</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.9793688690895245</v>
+        <v>0.9986951146725396</v>
       </c>
       <c r="C102" t="n">
-        <v>0.02008192790959038</v>
+        <v>0.0002339067870126243</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0005492030008850729</v>
+        <v>0.001070978540447726</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9793688690895245</v>
+        <v>0.9986951146725396</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -3403,20 +3403,20 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49107.fa</t>
+          <t>even_MAG-GUT73967.fa</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.9436521460172104</v>
+        <v>0.9996479316699531</v>
       </c>
       <c r="C103" t="n">
-        <v>0.05575453767362545</v>
+        <v>9.491714894148558e-05</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0005933163091641272</v>
+        <v>0.0002571511811054725</v>
       </c>
       <c r="E103" t="n">
-        <v>0.9436521460172104</v>
+        <v>0.9996479316699531</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -3432,20 +3432,20 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49445.fa</t>
+          <t>even_MAG-GUT74311.fa</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.9628797027928901</v>
+        <v>0.9995094216965005</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0368309492873287</v>
+        <v>0.0002097987038389627</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0002893479197810637</v>
+        <v>0.0002807795996604524</v>
       </c>
       <c r="E104" t="n">
-        <v>0.9628797027928901</v>
+        <v>0.9995094216965005</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -3461,20 +3461,20 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5085.fa</t>
+          <t>even_MAG-GUT75471.fa</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.9988671090598293</v>
+        <v>0.9997218112786825</v>
       </c>
       <c r="C105" t="n">
-        <v>0.001092906292561821</v>
+        <v>6.819420069416987e-05</v>
       </c>
       <c r="D105" t="n">
-        <v>3.998464760886453e-05</v>
+        <v>0.000209994520623345</v>
       </c>
       <c r="E105" t="n">
-        <v>0.9988671090598293</v>
+        <v>0.9997218112786825</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -3490,20 +3490,20 @@
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56545.fa</t>
+          <t>even_MAG-GUT75788.fa</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.9991508362141909</v>
+        <v>0.9992278615916356</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0002565948083172231</v>
+        <v>0.0006939382535539677</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0005925689774918812</v>
+        <v>7.820015481052185e-05</v>
       </c>
       <c r="E106" t="n">
-        <v>0.9991508362141909</v>
+        <v>0.9992278615916356</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -3519,20 +3519,20 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56566.fa</t>
+          <t>even_MAG-GUT75820.fa</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.9990569958797283</v>
+        <v>0.9992327984393578</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0002394089129954153</v>
+        <v>0.0006948679155188121</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0007035952072762732</v>
+        <v>7.233364512347836e-05</v>
       </c>
       <c r="E107" t="n">
-        <v>0.9990569958797283</v>
+        <v>0.9992327984393578</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -3548,20 +3548,20 @@
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56852.fa</t>
+          <t>even_MAG-GUT75834.fa</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.9992802660934537</v>
+        <v>0.9994470707640154</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0003236984148333353</v>
+        <v>0.0004976238574891297</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0003960354917129949</v>
+        <v>5.5305378495436e-05</v>
       </c>
       <c r="E108" t="n">
-        <v>0.9992802660934537</v>
+        <v>0.9994470707640154</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -3577,20 +3577,20 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57085.fa</t>
+          <t>even_MAG-GUT77563.fa</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.9991557083195959</v>
+        <v>0.9993277753958618</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0001942546909523164</v>
+        <v>0.0001219308262234803</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0006500369894518938</v>
+        <v>0.0005502937779147201</v>
       </c>
       <c r="E109" t="n">
-        <v>0.9991557083195959</v>
+        <v>0.9993277753958618</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -3606,20 +3606,20 @@
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57726.fa</t>
+          <t>even_MAG-GUT78371.fa</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.9996845925766044</v>
+        <v>0.9993829027455535</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0003146715403686915</v>
+        <v>0.0005629126503790277</v>
       </c>
       <c r="D110" t="n">
-        <v>7.358830271738899e-07</v>
+        <v>5.418460406740116e-05</v>
       </c>
       <c r="E110" t="n">
-        <v>0.9996845925766044</v>
+        <v>0.9993829027455535</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -3635,20 +3635,20 @@
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT58179.fa</t>
+          <t>even_MAG-GUT80384.fa</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.9988266900569761</v>
+        <v>0.9997609597376051</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0002042232088703094</v>
+        <v>0.0001551337080626614</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0009690867341536981</v>
+        <v>8.390655433230088e-05</v>
       </c>
       <c r="E111" t="n">
-        <v>0.9988266900569761</v>
+        <v>0.9997609597376051</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -3664,20 +3664,20 @@
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT58214.fa</t>
+          <t>even_MAG-GUT80449.fa</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.9997875627103392</v>
+        <v>0.9997586442934169</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0002094996236508764</v>
+        <v>0.0001330563472214962</v>
       </c>
       <c r="D112" t="n">
-        <v>2.937666009780876e-06</v>
+        <v>0.0001082993593616671</v>
       </c>
       <c r="E112" t="n">
-        <v>0.9997875627103392</v>
+        <v>0.9997586442934169</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -3693,20 +3693,20 @@
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT60374.fa</t>
+          <t>even_MAG-GUT80720.fa</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.9996701264565448</v>
+        <v>0.9999257519011611</v>
       </c>
       <c r="C113" t="n">
-        <v>0.000103818483170703</v>
+        <v>4.666466640448427e-05</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0002260550602844157</v>
+        <v>2.758343243437047e-05</v>
       </c>
       <c r="E113" t="n">
-        <v>0.9996701264565448</v>
+        <v>0.9999257519011611</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -3722,20 +3722,20 @@
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61409.fa</t>
+          <t>even_MAG-GUT80804.fa</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.9998142290835728</v>
+        <v>0.9992676561465316</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0001822655556553946</v>
+        <v>0.0002767947179894371</v>
       </c>
       <c r="D114" t="n">
-        <v>3.505360771712946e-06</v>
+        <v>0.0004555491354790185</v>
       </c>
       <c r="E114" t="n">
-        <v>0.9998142290835728</v>
+        <v>0.9992676561465316</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -3751,20 +3751,20 @@
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61637.fa</t>
+          <t>even_MAG-GUT81145.fa</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.9980584100318962</v>
+        <v>0.9998690004787606</v>
       </c>
       <c r="C115" t="n">
-        <v>8.807011165087002e-05</v>
+        <v>9.629055779526315e-05</v>
       </c>
       <c r="D115" t="n">
-        <v>0.001853519856452867</v>
+        <v>3.4708963444053e-05</v>
       </c>
       <c r="E115" t="n">
-        <v>0.9980584100318962</v>
+        <v>0.9998690004787606</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -3780,20 +3780,20 @@
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61735.fa</t>
+          <t>even_MAG-GUT81204.fa</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.9998182840235009</v>
+        <v>0.9989397370291487</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0001636422227995689</v>
+        <v>0.0001829956368214333</v>
       </c>
       <c r="D116" t="n">
-        <v>1.807375369949278e-05</v>
+        <v>0.0008772673340297783</v>
       </c>
       <c r="E116" t="n">
-        <v>0.9998182840235009</v>
+        <v>0.9989397370291487</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -3809,20 +3809,20 @@
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61794.fa</t>
+          <t>even_MAG-GUT82115.fa</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.9988348841199471</v>
+        <v>0.9998187014981034</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0004689181523996342</v>
+        <v>0.0001543394899986132</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0006961977276530527</v>
+        <v>2.695901189810167e-05</v>
       </c>
       <c r="E117" t="n">
-        <v>0.9988348841199471</v>
+        <v>0.9998187014981034</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -3838,20 +3838,20 @@
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62134.fa</t>
+          <t>even_MAG-GUT83592.fa</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.9990849852902395</v>
+        <v>0.9990293178730419</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0002723554336484587</v>
+        <v>0.0001355615017241529</v>
       </c>
       <c r="D118" t="n">
-        <v>0.000642659276112112</v>
+        <v>0.0008351206252338965</v>
       </c>
       <c r="E118" t="n">
-        <v>0.9990849852902395</v>
+        <v>0.9990293178730419</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -3867,20 +3867,20 @@
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62370.fa</t>
+          <t>even_MAG-GUT84859.fa</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.9998219747569355</v>
+        <v>0.9993392678889601</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0001709998993334285</v>
+        <v>0.0001816006724121263</v>
       </c>
       <c r="D119" t="n">
-        <v>7.025343731183581e-06</v>
+        <v>0.0004791314386277575</v>
       </c>
       <c r="E119" t="n">
-        <v>0.9998219747569355</v>
+        <v>0.9993392678889601</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -3888,1050 +3888,6 @@
         </is>
       </c>
       <c r="G119" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT62468.fa</t>
-        </is>
-      </c>
-      <c r="B120" t="n">
-        <v>0.9996804194215305</v>
-      </c>
-      <c r="C120" t="n">
-        <v>0.0001708668648632709</v>
-      </c>
-      <c r="D120" t="n">
-        <v>0.0001487137136062229</v>
-      </c>
-      <c r="E120" t="n">
-        <v>0.9996804194215305</v>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT6615.fa</t>
-        </is>
-      </c>
-      <c r="B121" t="n">
-        <v>0.9993360372183819</v>
-      </c>
-      <c r="C121" t="n">
-        <v>0.0002430686373879877</v>
-      </c>
-      <c r="D121" t="n">
-        <v>0.0004208941442301084</v>
-      </c>
-      <c r="E121" t="n">
-        <v>0.9993360372183819</v>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT66915.fa</t>
-        </is>
-      </c>
-      <c r="B122" t="n">
-        <v>0.9997386828191783</v>
-      </c>
-      <c r="C122" t="n">
-        <v>0.0001318111339768672</v>
-      </c>
-      <c r="D122" t="n">
-        <v>0.0001295060468447838</v>
-      </c>
-      <c r="E122" t="n">
-        <v>0.9997386828191783</v>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT6727.fa</t>
-        </is>
-      </c>
-      <c r="B123" t="n">
-        <v>0.9992286636118153</v>
-      </c>
-      <c r="C123" t="n">
-        <v>0.0003061423121184201</v>
-      </c>
-      <c r="D123" t="n">
-        <v>0.0004651940760663706</v>
-      </c>
-      <c r="E123" t="n">
-        <v>0.9992286636118153</v>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT6753.fa</t>
-        </is>
-      </c>
-      <c r="B124" t="n">
-        <v>0.9997918379988476</v>
-      </c>
-      <c r="C124" t="n">
-        <v>0.0001047080976210661</v>
-      </c>
-      <c r="D124" t="n">
-        <v>0.0001034539035313848</v>
-      </c>
-      <c r="E124" t="n">
-        <v>0.9997918379988476</v>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT67531.fa</t>
-        </is>
-      </c>
-      <c r="B125" t="n">
-        <v>0.9992966070080744</v>
-      </c>
-      <c r="C125" t="n">
-        <v>0.0002685414066298057</v>
-      </c>
-      <c r="D125" t="n">
-        <v>0.0004348515852958356</v>
-      </c>
-      <c r="E125" t="n">
-        <v>0.9992966070080744</v>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT6784.fa</t>
-        </is>
-      </c>
-      <c r="B126" t="n">
-        <v>0.9976700800618677</v>
-      </c>
-      <c r="C126" t="n">
-        <v>0.000224036917296757</v>
-      </c>
-      <c r="D126" t="n">
-        <v>0.002105883020835536</v>
-      </c>
-      <c r="E126" t="n">
-        <v>0.9976700800618677</v>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT68537.fa</t>
-        </is>
-      </c>
-      <c r="B127" t="n">
-        <v>0.9643549627696569</v>
-      </c>
-      <c r="C127" t="n">
-        <v>0.03534696185008751</v>
-      </c>
-      <c r="D127" t="n">
-        <v>0.0002980753802555658</v>
-      </c>
-      <c r="E127" t="n">
-        <v>0.9643549627696569</v>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT68996.fa</t>
-        </is>
-      </c>
-      <c r="B128" t="n">
-        <v>0.999397703730617</v>
-      </c>
-      <c r="C128" t="n">
-        <v>0.0002314629071519689</v>
-      </c>
-      <c r="D128" t="n">
-        <v>0.0003708333622310773</v>
-      </c>
-      <c r="E128" t="n">
-        <v>0.999397703730617</v>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT69662.fa</t>
-        </is>
-      </c>
-      <c r="B129" t="n">
-        <v>0.9986022801643775</v>
-      </c>
-      <c r="C129" t="n">
-        <v>0.0001716007979410481</v>
-      </c>
-      <c r="D129" t="n">
-        <v>0.001226119037681517</v>
-      </c>
-      <c r="E129" t="n">
-        <v>0.9986022801643775</v>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT7016.fa</t>
-        </is>
-      </c>
-      <c r="B130" t="n">
-        <v>0.9997683677337106</v>
-      </c>
-      <c r="C130" t="n">
-        <v>0.0002001058073872417</v>
-      </c>
-      <c r="D130" t="n">
-        <v>3.152645890217879e-05</v>
-      </c>
-      <c r="E130" t="n">
-        <v>0.9997683677337106</v>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT7042.fa</t>
-        </is>
-      </c>
-      <c r="B131" t="n">
-        <v>0.9986951146725396</v>
-      </c>
-      <c r="C131" t="n">
-        <v>0.0002339067870126243</v>
-      </c>
-      <c r="D131" t="n">
-        <v>0.001070978540447726</v>
-      </c>
-      <c r="E131" t="n">
-        <v>0.9986951146725396</v>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT73967.fa</t>
-        </is>
-      </c>
-      <c r="B132" t="n">
-        <v>0.9996479316699531</v>
-      </c>
-      <c r="C132" t="n">
-        <v>9.491714894148558e-05</v>
-      </c>
-      <c r="D132" t="n">
-        <v>0.0002571511811054725</v>
-      </c>
-      <c r="E132" t="n">
-        <v>0.9996479316699531</v>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT74311.fa</t>
-        </is>
-      </c>
-      <c r="B133" t="n">
-        <v>0.9995094216965005</v>
-      </c>
-      <c r="C133" t="n">
-        <v>0.0002097987038389627</v>
-      </c>
-      <c r="D133" t="n">
-        <v>0.0002807795996604524</v>
-      </c>
-      <c r="E133" t="n">
-        <v>0.9995094216965005</v>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT75471.fa</t>
-        </is>
-      </c>
-      <c r="B134" t="n">
-        <v>0.9997218112786825</v>
-      </c>
-      <c r="C134" t="n">
-        <v>6.819420069416987e-05</v>
-      </c>
-      <c r="D134" t="n">
-        <v>0.000209994520623345</v>
-      </c>
-      <c r="E134" t="n">
-        <v>0.9997218112786825</v>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT75788.fa</t>
-        </is>
-      </c>
-      <c r="B135" t="n">
-        <v>0.9992278615916356</v>
-      </c>
-      <c r="C135" t="n">
-        <v>0.0006939382535539677</v>
-      </c>
-      <c r="D135" t="n">
-        <v>7.820015481052185e-05</v>
-      </c>
-      <c r="E135" t="n">
-        <v>0.9992278615916356</v>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT75820.fa</t>
-        </is>
-      </c>
-      <c r="B136" t="n">
-        <v>0.9992327984393578</v>
-      </c>
-      <c r="C136" t="n">
-        <v>0.0006948679155188121</v>
-      </c>
-      <c r="D136" t="n">
-        <v>7.233364512347836e-05</v>
-      </c>
-      <c r="E136" t="n">
-        <v>0.9992327984393578</v>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT75834.fa</t>
-        </is>
-      </c>
-      <c r="B137" t="n">
-        <v>0.9994470707640154</v>
-      </c>
-      <c r="C137" t="n">
-        <v>0.0004976238574891297</v>
-      </c>
-      <c r="D137" t="n">
-        <v>5.5305378495436e-05</v>
-      </c>
-      <c r="E137" t="n">
-        <v>0.9994470707640154</v>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT77563.fa</t>
-        </is>
-      </c>
-      <c r="B138" t="n">
-        <v>0.9993277753958618</v>
-      </c>
-      <c r="C138" t="n">
-        <v>0.0001219308262234803</v>
-      </c>
-      <c r="D138" t="n">
-        <v>0.0005502937779147201</v>
-      </c>
-      <c r="E138" t="n">
-        <v>0.9993277753958618</v>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT78371.fa</t>
-        </is>
-      </c>
-      <c r="B139" t="n">
-        <v>0.9993829027455535</v>
-      </c>
-      <c r="C139" t="n">
-        <v>0.0005629126503790277</v>
-      </c>
-      <c r="D139" t="n">
-        <v>5.418460406740116e-05</v>
-      </c>
-      <c r="E139" t="n">
-        <v>0.9993829027455535</v>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT80384.fa</t>
-        </is>
-      </c>
-      <c r="B140" t="n">
-        <v>0.9997609597376051</v>
-      </c>
-      <c r="C140" t="n">
-        <v>0.0001551337080626614</v>
-      </c>
-      <c r="D140" t="n">
-        <v>8.390655433230088e-05</v>
-      </c>
-      <c r="E140" t="n">
-        <v>0.9997609597376051</v>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT80449.fa</t>
-        </is>
-      </c>
-      <c r="B141" t="n">
-        <v>0.9997586442934169</v>
-      </c>
-      <c r="C141" t="n">
-        <v>0.0001330563472214962</v>
-      </c>
-      <c r="D141" t="n">
-        <v>0.0001082993593616671</v>
-      </c>
-      <c r="E141" t="n">
-        <v>0.9997586442934169</v>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT80685.fa</t>
-        </is>
-      </c>
-      <c r="B142" t="n">
-        <v>0.9872232672608841</v>
-      </c>
-      <c r="C142" t="n">
-        <v>0.01246816814713162</v>
-      </c>
-      <c r="D142" t="n">
-        <v>0.0003085645919844141</v>
-      </c>
-      <c r="E142" t="n">
-        <v>0.9872232672608841</v>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT80720.fa</t>
-        </is>
-      </c>
-      <c r="B143" t="n">
-        <v>0.9999257519011611</v>
-      </c>
-      <c r="C143" t="n">
-        <v>4.666466640448427e-05</v>
-      </c>
-      <c r="D143" t="n">
-        <v>2.758343243437047e-05</v>
-      </c>
-      <c r="E143" t="n">
-        <v>0.9999257519011611</v>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT80804.fa</t>
-        </is>
-      </c>
-      <c r="B144" t="n">
-        <v>0.9992676561465316</v>
-      </c>
-      <c r="C144" t="n">
-        <v>0.0002767947179894371</v>
-      </c>
-      <c r="D144" t="n">
-        <v>0.0004555491354790185</v>
-      </c>
-      <c r="E144" t="n">
-        <v>0.9992676561465316</v>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT81029.fa</t>
-        </is>
-      </c>
-      <c r="B145" t="n">
-        <v>0.9998573631939917</v>
-      </c>
-      <c r="C145" t="n">
-        <v>0.0001315655453453577</v>
-      </c>
-      <c r="D145" t="n">
-        <v>1.107126066295541e-05</v>
-      </c>
-      <c r="E145" t="n">
-        <v>0.9998573631939917</v>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT81145.fa</t>
-        </is>
-      </c>
-      <c r="B146" t="n">
-        <v>0.9998690004787606</v>
-      </c>
-      <c r="C146" t="n">
-        <v>9.629055779526315e-05</v>
-      </c>
-      <c r="D146" t="n">
-        <v>3.4708963444053e-05</v>
-      </c>
-      <c r="E146" t="n">
-        <v>0.9998690004787606</v>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT81204.fa</t>
-        </is>
-      </c>
-      <c r="B147" t="n">
-        <v>0.9989397370291487</v>
-      </c>
-      <c r="C147" t="n">
-        <v>0.0001829956368214333</v>
-      </c>
-      <c r="D147" t="n">
-        <v>0.0008772673340297783</v>
-      </c>
-      <c r="E147" t="n">
-        <v>0.9989397370291487</v>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT81432.fa</t>
-        </is>
-      </c>
-      <c r="B148" t="n">
-        <v>0.9997778408335899</v>
-      </c>
-      <c r="C148" t="n">
-        <v>0.0002189262373112066</v>
-      </c>
-      <c r="D148" t="n">
-        <v>3.232929098936058e-06</v>
-      </c>
-      <c r="E148" t="n">
-        <v>0.9997778408335899</v>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT81523.fa</t>
-        </is>
-      </c>
-      <c r="B149" t="n">
-        <v>0.999572398332736</v>
-      </c>
-      <c r="C149" t="n">
-        <v>0.0004269602125974501</v>
-      </c>
-      <c r="D149" t="n">
-        <v>6.414546664172276e-07</v>
-      </c>
-      <c r="E149" t="n">
-        <v>0.999572398332736</v>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT82115.fa</t>
-        </is>
-      </c>
-      <c r="B150" t="n">
-        <v>0.9998187014981034</v>
-      </c>
-      <c r="C150" t="n">
-        <v>0.0001543394899986132</v>
-      </c>
-      <c r="D150" t="n">
-        <v>2.695901189810167e-05</v>
-      </c>
-      <c r="E150" t="n">
-        <v>0.9998187014981034</v>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT83592.fa</t>
-        </is>
-      </c>
-      <c r="B151" t="n">
-        <v>0.9990293178730419</v>
-      </c>
-      <c r="C151" t="n">
-        <v>0.0001355615017241529</v>
-      </c>
-      <c r="D151" t="n">
-        <v>0.0008351206252338965</v>
-      </c>
-      <c r="E151" t="n">
-        <v>0.9990293178730419</v>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT84859.fa</t>
-        </is>
-      </c>
-      <c r="B152" t="n">
-        <v>0.9993392678889601</v>
-      </c>
-      <c r="C152" t="n">
-        <v>0.0001816006724121263</v>
-      </c>
-      <c r="D152" t="n">
-        <v>0.0004791314386277575</v>
-      </c>
-      <c r="E152" t="n">
-        <v>0.9993392678889601</v>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-      <c r="G152" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT90614.fa</t>
-        </is>
-      </c>
-      <c r="B153" t="n">
-        <v>0.9814060269667765</v>
-      </c>
-      <c r="C153" t="n">
-        <v>0.01805021732980539</v>
-      </c>
-      <c r="D153" t="n">
-        <v>0.0005437557034181427</v>
-      </c>
-      <c r="E153" t="n">
-        <v>0.9814060269667765</v>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT90675.fa</t>
-        </is>
-      </c>
-      <c r="B154" t="n">
-        <v>0.9853014861068563</v>
-      </c>
-      <c r="C154" t="n">
-        <v>0.01440870169607968</v>
-      </c>
-      <c r="D154" t="n">
-        <v>0.0002898121970639975</v>
-      </c>
-      <c r="E154" t="n">
-        <v>0.9853014861068563</v>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT90995.fa</t>
-        </is>
-      </c>
-      <c r="B155" t="n">
-        <v>0.9794346655637869</v>
-      </c>
-      <c r="C155" t="n">
-        <v>0.01988135458206661</v>
-      </c>
-      <c r="D155" t="n">
-        <v>0.0006839798541464567</v>
-      </c>
-      <c r="E155" t="n">
-        <v>0.9794346655637869</v>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-      <c r="G155" t="inlineStr">
         <is>
           <t>f__Burkholderiaceae</t>
         </is>
